--- a/02_Inventory/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/02_Inventory/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2599E3-D7EA-4CD8-8600-C9FDEF9DE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A031786-0E83-423B-9F0C-FDB9435DEE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="109">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Vaida Tudor-Filip</t>
+  </si>
+  <si>
+    <t>(0, null, 0.0, 0, 0, 0, null)</t>
   </si>
 </sst>
 </file>
@@ -1206,12 +1209,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1221,77 +1269,38 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,27 +1308,75 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1335,65 +1392,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,22 +1494,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>629774</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>50426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63234</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615413</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3808</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33EC043-D240-B7A8-86A8-17E90473B5D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A57D96B-D3BD-528C-189A-8EB0ACBD2D33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,8 +1525,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1126191"/>
-          <a:ext cx="5333415" cy="2164337"/>
+          <a:off x="629774" y="1126191"/>
+          <a:ext cx="4602463" cy="2822088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1827,7 +1830,7 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -1971,8 +1974,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1994,18 +1997,18 @@
       <c r="I1" s="47"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="45" t="s">
@@ -2036,19 +2039,19 @@
       <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="I8" s="8"/>
-      <c r="Q8" s="50" t="s">
+      <c r="Q8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
       <c r="T8" s="22">
         <v>5</v>
       </c>
@@ -2057,19 +2060,19 @@
       <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="I9" s="21"/>
-      <c r="Q9" s="50" t="s">
+      <c r="Q9" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
       <c r="T9" s="22" t="s">
         <v>73</v>
       </c>
@@ -2078,29 +2081,29 @@
       <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="60"/>
-      <c r="Q10" s="50" t="s">
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+      <c r="Q10" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="50" t="s">
+      <c r="R10" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="50"/>
+      <c r="S10" s="63"/>
       <c r="T10" s="22" t="s">
         <v>74</v>
       </c>
@@ -2109,109 +2112,109 @@
       <c r="B11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="59"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="Q13" s="51" t="s">
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59"/>
+      <c r="Q13" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="68"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="63"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
       <c r="Q15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="67" t="s">
+      <c r="R15" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="63"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="59"/>
       <c r="Q16" s="19" t="s">
         <v>51</v>
       </c>
@@ -2222,47 +2225,47 @@
       <c r="T16" s="48"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="63"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
       <c r="Q17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="68" t="s">
+      <c r="R17" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="63"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
       <c r="Q18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="68" t="s">
+      <c r="R18" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
       <c r="Q19" s="19" t="s">
         <v>70</v>
       </c>
@@ -2273,13 +2276,13 @@
       <c r="T19" s="48"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
       <c r="Q20" s="19" t="s">
         <v>71</v>
       </c>
@@ -2290,47 +2293,55 @@
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="63"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I22" s="61"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I23" s="61"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="66"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
@@ -2347,14 +2358,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2369,8 +2372,8 @@
   </sheetPr>
   <dimension ref="B1:Y14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2408,152 +2411,152 @@
       <c r="G1" s="47"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="69" t="s">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="70" t="s">
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
     </row>
     <row r="8" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="77"/>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="71" t="s">
+      <c r="E8" s="77"/>
+      <c r="F8" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71" t="s">
+      <c r="G8" s="73"/>
+      <c r="H8" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72" t="s">
+      <c r="I8" s="73"/>
+      <c r="J8" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="72" t="s">
+      <c r="K8" s="76"/>
+      <c r="L8" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="73"/>
-      <c r="N8" s="69" t="s">
+      <c r="M8" s="76"/>
+      <c r="N8" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="69" t="s">
+      <c r="O8" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="69" t="s">
+      <c r="R8" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="70">
+      <c r="S8" s="72">
         <v>0</v>
       </c>
-      <c r="T8" s="70">
+      <c r="T8" s="72">
         <v>1</v>
       </c>
-      <c r="U8" s="70">
+      <c r="U8" s="72">
         <v>2</v>
       </c>
-      <c r="V8" s="70" t="s">
+      <c r="V8" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="70" t="s">
+      <c r="W8" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="70" t="s">
+      <c r="X8" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="70" t="s">
+      <c r="Y8" s="72" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B9" s="77"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
@@ -2578,18 +2581,18 @@
       <c r="M9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
@@ -2735,7 +2738,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>95</v>
@@ -2761,13 +2764,13 @@
       </c>
       <c r="Q13" s="33"/>
       <c r="R13" s="33"/>
-      <c r="S13" s="34" t="s">
-        <v>86</v>
-      </c>
+      <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
+      <c r="W13" s="34" t="s">
+        <v>86</v>
+      </c>
       <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
     </row>
@@ -2776,6 +2779,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:M7"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2792,18 +2807,6 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S7:Y7"/>
     <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2817,8 +2820,8 @@
   </sheetPr>
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2842,37 +2845,37 @@
       <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="78" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="108"/>
+      <c r="G4" s="88"/>
     </row>
     <row r="5" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="106"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2887,7 +2890,7 @@
       <c r="B6" s="14">
         <v>9</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="89" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2907,7 +2910,7 @@
       <c r="B7" s="14">
         <v>10</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
@@ -2925,7 +2928,7 @@
       <c r="B8" s="14">
         <v>11</v>
       </c>
-      <c r="C8" s="109"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="6" t="s">
         <v>91</v>
       </c>
@@ -2943,7 +2946,7 @@
       <c r="B9" s="14">
         <v>12</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="6" t="s">
         <v>94</v>
       </c>
@@ -2951,10 +2954,10 @@
         <v>103</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
@@ -2972,83 +2975,83 @@
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="2:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="102" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="103"/>
-      <c r="H12" s="78" t="s">
+      <c r="G12" s="83"/>
+      <c r="H12" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="93" t="s">
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="94"/>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="87" t="s">
+      <c r="K13" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="89" t="s">
+      <c r="L13" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="91" t="s">
+      <c r="M13" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="81" t="s">
+      <c r="N13" s="91" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="96"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="82"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="100"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="22">
@@ -3091,6 +3094,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:G12"/>
@@ -3100,21 +3118,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3122,6 +3125,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CE88883EE47F4428D9429E199926803" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5f326b5507af02236aea2df6bac5602">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb151dce-bb4e-4b45-9888-deda11e2455e" xmlns:ns3="851ad6cb-772e-4066-aadb-684825ca80fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af732ca05a255daed5b64bc68beaeae8" ns2:_="" ns3:_="">
     <xsd:import namespace="cb151dce-bb4e-4b45-9888-deda11e2455e"/>
@@ -3298,15 +3310,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3319,6 +3322,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD927A50-C247-4539-9D6B-11DFFC9ACCD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A2405DA-EDA0-42CA-83EE-3B3A26659A77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3337,14 +3348,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD927A50-C247-4539-9D6B-11DFFC9ACCD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3ED397E-071B-4B5A-858C-7B39CDA154AC}">
   <ds:schemaRefs>

--- a/02_Inventory/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/02_Inventory/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A031786-0E83-423B-9F0C-FDB9435DEE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CDC376-86F6-462D-8E67-DEB9B6F22BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>p.getName().contains(searchItem) || (p.getProductId() + "").equals(searchItem)</t>
-  </si>
-  <si>
-    <t>!isFound</t>
   </si>
   <si>
     <t>46, 49, 50, 51, 52, 59</t>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>(0, null, 0.0, 0, 0, 0, null)</t>
+  </si>
+  <si>
+    <t>isFound==false</t>
   </si>
 </sst>
 </file>
@@ -1209,6 +1209,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1221,9 +1236,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,9 +1262,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1260,54 +1269,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1335,68 +1395,8 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1843,7 +1843,7 @@
     <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="8"/>
       <c r="D1" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>66</v>
@@ -1897,7 +1897,7 @@
         <v>57</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P7" s="22">
         <v>233</v>
@@ -1912,7 +1912,7 @@
         <v>58</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P8" s="22">
         <v>323</v>
@@ -1974,7 +1974,7 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -1988,7 +1988,7 @@
     <row r="1" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B1" s="8"/>
       <c r="D1" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -1997,18 +1997,18 @@
       <c r="I1" s="47"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="45" t="s">
@@ -2039,19 +2039,19 @@
       <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="I8" s="8"/>
-      <c r="Q8" s="63" t="s">
+      <c r="Q8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
       <c r="T8" s="22">
         <v>5</v>
       </c>
@@ -2060,19 +2060,19 @@
       <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="I9" s="21"/>
-      <c r="Q9" s="63" t="s">
+      <c r="Q9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
       <c r="T9" s="22" t="s">
         <v>73</v>
       </c>
@@ -2081,29 +2081,29 @@
       <c r="B10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="Q10" s="63" t="s">
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="Q10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="63" t="s">
+      <c r="R10" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="63"/>
+      <c r="S10" s="50"/>
       <c r="T10" s="22" t="s">
         <v>74</v>
       </c>
@@ -2112,109 +2112,109 @@
       <c r="B11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
-      <c r="Q13" s="66" t="s">
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="Q13" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="68"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="59"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
       <c r="Q15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="64" t="s">
+      <c r="R15" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
       <c r="Q16" s="19" t="s">
         <v>51</v>
       </c>
@@ -2225,47 +2225,47 @@
       <c r="T16" s="48"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
       <c r="Q17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="65" t="s">
+      <c r="R17" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
       <c r="Q18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="65" t="s">
+      <c r="R18" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
       <c r="Q19" s="19" t="s">
         <v>70</v>
       </c>
@@ -2276,72 +2276,64 @@
       <c r="T19" s="48"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
       <c r="Q20" s="19" t="s">
         <v>71</v>
       </c>
       <c r="R20" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="59"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.45">
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
@@ -2358,6 +2350,14 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2373,7 +2373,7 @@
   <dimension ref="B1:Y14"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2404,159 +2404,159 @@
     <row r="1" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B1" s="8"/>
       <c r="D1" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="47"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="2:25" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="77" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74" t="s">
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="72" t="s">
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
     </row>
     <row r="8" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="69"/>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="73" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="75" t="s">
+      <c r="I8" s="71"/>
+      <c r="J8" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="74" t="s">
+      <c r="K8" s="73"/>
+      <c r="L8" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="73"/>
+      <c r="N8" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="74" t="s">
+      <c r="O8" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="74" t="s">
+      <c r="P8" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="74" t="s">
+      <c r="Q8" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="74" t="s">
+      <c r="R8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="72">
+      <c r="S8" s="70">
         <v>0</v>
       </c>
-      <c r="T8" s="72">
+      <c r="T8" s="70">
         <v>1</v>
       </c>
-      <c r="U8" s="72">
+      <c r="U8" s="70">
         <v>2</v>
       </c>
-      <c r="V8" s="72" t="s">
+      <c r="V8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="72" t="s">
+      <c r="W8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="72" t="s">
+      <c r="X8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="72" t="s">
+      <c r="Y8" s="70" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="B9" s="69"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
@@ -2581,18 +2581,18 @@
       <c r="M9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
@@ -2639,13 +2639,13 @@
         <v>50</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
@@ -2682,16 +2682,16 @@
     </row>
     <row r="12" spans="2:25" ht="31.5" x14ac:dyDescent="0.45">
       <c r="B12" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>83</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32" t="s">
@@ -2732,16 +2732,16 @@
     </row>
     <row r="13" spans="2:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>95</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32" t="s">
@@ -2779,18 +2779,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:M7"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2807,6 +2795,18 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S7:Y7"/>
     <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2820,7 +2820,7 @@
   </sheetPr>
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2840,42 +2840,42 @@
     <row r="1" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B1" s="8"/>
       <c r="D1" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="47"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="100" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="108"/>
     </row>
     <row r="5" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="86"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="79"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="B6" s="14">
         <v>9</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="109" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2910,30 +2910,30 @@
       <c r="B7" s="14">
         <v>10</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <v>11</v>
       </c>
-      <c r="C8" s="89"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>83</v>
@@ -2946,18 +2946,18 @@
       <c r="B9" s="14">
         <v>12</v>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
@@ -2975,83 +2975,83 @@
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="2:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82" t="s">
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="103"/>
+      <c r="H12" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="110" t="s">
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="111"/>
+      <c r="N12" s="94"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="91" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="100"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="82"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="22">
@@ -3094,6 +3094,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="H13:H14"/>
@@ -3103,21 +3118,6 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3125,15 +3125,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CE88883EE47F4428D9429E199926803" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5f326b5507af02236aea2df6bac5602">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb151dce-bb4e-4b45-9888-deda11e2455e" xmlns:ns3="851ad6cb-772e-4066-aadb-684825ca80fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af732ca05a255daed5b64bc68beaeae8" ns2:_="" ns3:_="">
     <xsd:import namespace="cb151dce-bb4e-4b45-9888-deda11e2455e"/>
@@ -3310,6 +3301,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3322,14 +3322,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD927A50-C247-4539-9D6B-11DFFC9ACCD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A2405DA-EDA0-42CA-83EE-3B3A26659A77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3348,6 +3340,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD927A50-C247-4539-9D6B-11DFFC9ACCD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3ED397E-071B-4B5A-858C-7B39CDA154AC}">
   <ds:schemaRefs>
